--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Il2rg</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H2">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I2">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J2">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1272781398607</v>
+        <v>23.115164</v>
       </c>
       <c r="N2">
-        <v>13.1272781398607</v>
+        <v>69.34549200000001</v>
       </c>
       <c r="O2">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="P2">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="Q2">
-        <v>8.56262161763231</v>
+        <v>3.807306367494667</v>
       </c>
       <c r="R2">
-        <v>8.56262161763231</v>
+        <v>34.26575730745201</v>
       </c>
       <c r="S2">
-        <v>0.0235550620967261</v>
+        <v>0.0063443129512862</v>
       </c>
       <c r="T2">
-        <v>0.0235550620967261</v>
+        <v>0.0063443129512862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H3">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I3">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J3">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40945162313721</v>
+        <v>1.438934333333333</v>
       </c>
       <c r="N3">
-        <v>1.40945162313721</v>
+        <v>4.316803</v>
       </c>
       <c r="O3">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="P3">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="Q3">
-        <v>0.9193528779309987</v>
+        <v>0.2370073536881111</v>
       </c>
       <c r="R3">
-        <v>0.9193528779309987</v>
+        <v>2.133066183193</v>
       </c>
       <c r="S3">
-        <v>0.002529063538656817</v>
+        <v>0.000394937700940259</v>
       </c>
       <c r="T3">
-        <v>0.002529063538656817</v>
+        <v>0.000394937700940259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H4">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I4">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J4">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.6117668975441</v>
+        <v>66.60745199999999</v>
       </c>
       <c r="N4">
-        <v>56.6117668975441</v>
+        <v>199.822356</v>
       </c>
       <c r="O4">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="P4">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="Q4">
-        <v>36.92655353872286</v>
+        <v>10.970935621404</v>
       </c>
       <c r="R4">
-        <v>36.92655353872286</v>
+        <v>98.73842059263599</v>
       </c>
       <c r="S4">
-        <v>0.1015818870042762</v>
+        <v>0.0182814415842247</v>
       </c>
       <c r="T4">
-        <v>0.1015818870042762</v>
+        <v>0.01828144158422471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H5">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I5">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J5">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.5300021551716</v>
+        <v>75.59544766666666</v>
       </c>
       <c r="N5">
-        <v>73.5300021551716</v>
+        <v>226.786343</v>
       </c>
       <c r="O5">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="P5">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="Q5">
-        <v>47.96192929641877</v>
+        <v>12.45135138365922</v>
       </c>
       <c r="R5">
-        <v>47.96192929641877</v>
+        <v>112.062162452933</v>
       </c>
       <c r="S5">
-        <v>0.1319392907108655</v>
+        <v>0.02074833549482545</v>
       </c>
       <c r="T5">
-        <v>0.1319392907108655</v>
+        <v>0.02074833549482545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H6">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I6">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J6">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.9809295181275</v>
+        <v>25.85093633333333</v>
       </c>
       <c r="N6">
-        <v>24.9809295181275</v>
+        <v>77.552809</v>
       </c>
       <c r="O6">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="P6">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="Q6">
-        <v>16.29448579069548</v>
+        <v>4.257916340442111</v>
       </c>
       <c r="R6">
-        <v>16.29448579069548</v>
+        <v>38.32124706397899</v>
       </c>
       <c r="S6">
-        <v>0.04482477934604617</v>
+        <v>0.007095187824859977</v>
       </c>
       <c r="T6">
-        <v>0.04482477934604617</v>
+        <v>0.007095187824859977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H7">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I7">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J7">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.91573854085714</v>
+        <v>3.161759</v>
       </c>
       <c r="N7">
-        <v>2.91573854085714</v>
+        <v>9.485277</v>
       </c>
       <c r="O7">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="P7">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="Q7">
-        <v>1.901869191412742</v>
+        <v>0.5207743788096666</v>
       </c>
       <c r="R7">
-        <v>1.901869191412742</v>
+        <v>4.686969409287</v>
       </c>
       <c r="S7">
-        <v>0.005231884451290851</v>
+        <v>0.0008677934784518814</v>
       </c>
       <c r="T7">
-        <v>0.005231884451290851</v>
+        <v>0.0008677934784518814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H8">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I8">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J8">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1272781398607</v>
+        <v>23.115164</v>
       </c>
       <c r="N8">
-        <v>13.1272781398607</v>
+        <v>69.34549200000001</v>
       </c>
       <c r="O8">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="P8">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="Q8">
-        <v>3.461789135317403</v>
+        <v>15.67933164844133</v>
       </c>
       <c r="R8">
-        <v>3.461789135317403</v>
+        <v>141.113984835972</v>
       </c>
       <c r="S8">
-        <v>0.009523094875552952</v>
+        <v>0.02612728717972217</v>
       </c>
       <c r="T8">
-        <v>0.009523094875552952</v>
+        <v>0.02612728717972216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H9">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I9">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J9">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.40945162313721</v>
+        <v>1.438934333333333</v>
       </c>
       <c r="N9">
-        <v>1.40945162313721</v>
+        <v>4.316803</v>
       </c>
       <c r="O9">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="P9">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="Q9">
-        <v>0.3716859095806169</v>
+        <v>0.9760488237358887</v>
       </c>
       <c r="R9">
-        <v>0.3716859095806169</v>
+        <v>8.784439413623</v>
       </c>
       <c r="S9">
-        <v>0.001022477118762427</v>
+        <v>0.001626441004691209</v>
       </c>
       <c r="T9">
-        <v>0.001022477118762427</v>
+        <v>0.001626441004691209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H10">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I10">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J10">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.6117668975441</v>
+        <v>66.60745199999999</v>
       </c>
       <c r="N10">
-        <v>56.6117668975441</v>
+        <v>199.822356</v>
       </c>
       <c r="O10">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="P10">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="Q10">
-        <v>14.92906583444412</v>
+        <v>45.18074499344399</v>
       </c>
       <c r="R10">
-        <v>14.92906583444412</v>
+        <v>406.6267049409959</v>
       </c>
       <c r="S10">
-        <v>0.04106862226076985</v>
+        <v>0.07528702918627612</v>
       </c>
       <c r="T10">
-        <v>0.04106862226076985</v>
+        <v>0.07528702918627612</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H11">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I11">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J11">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>73.5300021551716</v>
+        <v>75.59544766666666</v>
       </c>
       <c r="N11">
-        <v>73.5300021551716</v>
+        <v>226.786343</v>
       </c>
       <c r="O11">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="P11">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="Q11">
-        <v>19.39056671677556</v>
+        <v>51.27742529008476</v>
       </c>
       <c r="R11">
-        <v>19.39056671677556</v>
+        <v>461.496827610763</v>
       </c>
       <c r="S11">
-        <v>0.05334184126083755</v>
+        <v>0.08544624518634855</v>
       </c>
       <c r="T11">
-        <v>0.05334184126083755</v>
+        <v>0.08544624518634855</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H12">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I12">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J12">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.9809295181275</v>
+        <v>25.85093633333333</v>
       </c>
       <c r="N12">
-        <v>24.9809295181275</v>
+        <v>77.552809</v>
       </c>
       <c r="O12">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="P12">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="Q12">
-        <v>6.587710679595706</v>
+        <v>17.53504341102989</v>
       </c>
       <c r="R12">
-        <v>6.587710679595706</v>
+        <v>157.815390699269</v>
       </c>
       <c r="S12">
-        <v>0.01812224585676021</v>
+        <v>0.02921955636766038</v>
       </c>
       <c r="T12">
-        <v>0.01812224585676021</v>
+        <v>0.02921955636766037</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H13">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I13">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J13">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.91573854085714</v>
+        <v>3.161759</v>
       </c>
       <c r="N13">
-        <v>2.91573854085714</v>
+        <v>9.485277</v>
       </c>
       <c r="O13">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="P13">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="Q13">
-        <v>0.7689082149875568</v>
+        <v>2.144664340406333</v>
       </c>
       <c r="R13">
-        <v>0.7689082149875568</v>
+        <v>19.301979063657</v>
       </c>
       <c r="S13">
-        <v>0.002115202745082045</v>
+        <v>0.003573765922061862</v>
       </c>
       <c r="T13">
-        <v>0.002115202745082045</v>
+        <v>0.003573765922061861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.19042966377159</v>
+        <v>0.3320596666666667</v>
       </c>
       <c r="H14">
-        <v>1.19042966377159</v>
+        <v>0.996179</v>
       </c>
       <c r="I14">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="J14">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1272781398607</v>
+        <v>23.115164</v>
       </c>
       <c r="N14">
-        <v>13.1272781398607</v>
+        <v>69.34549200000001</v>
       </c>
       <c r="O14">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="P14">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="Q14">
-        <v>15.62710130227052</v>
+        <v>7.675613652785335</v>
       </c>
       <c r="R14">
-        <v>15.62710130227052</v>
+        <v>69.08052287506801</v>
       </c>
       <c r="S14">
-        <v>0.04298885995485523</v>
+        <v>0.01279027490989097</v>
       </c>
       <c r="T14">
-        <v>0.04298885995485523</v>
+        <v>0.01279027490989097</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.19042966377159</v>
+        <v>0.3320596666666667</v>
       </c>
       <c r="H15">
-        <v>1.19042966377159</v>
+        <v>0.996179</v>
       </c>
       <c r="I15">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="J15">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.40945162313721</v>
+        <v>1.438934333333333</v>
       </c>
       <c r="N15">
-        <v>1.40945162313721</v>
+        <v>4.316803</v>
       </c>
       <c r="O15">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="P15">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="Q15">
-        <v>1.677853021833551</v>
+        <v>0.477812055081889</v>
       </c>
       <c r="R15">
-        <v>1.677853021833551</v>
+        <v>4.300308495737</v>
       </c>
       <c r="S15">
-        <v>0.004615634543173615</v>
+        <v>0.0007962031201947788</v>
       </c>
       <c r="T15">
-        <v>0.004615634543173615</v>
+        <v>0.0007962031201947788</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.19042966377159</v>
+        <v>0.3320596666666667</v>
       </c>
       <c r="H16">
-        <v>1.19042966377159</v>
+        <v>0.996179</v>
       </c>
       <c r="I16">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="J16">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.6117668975441</v>
+        <v>66.60745199999999</v>
       </c>
       <c r="N16">
-        <v>56.6117668975441</v>
+        <v>199.822356</v>
       </c>
       <c r="O16">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="P16">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="Q16">
-        <v>67.39232663335906</v>
+        <v>22.117648308636</v>
       </c>
       <c r="R16">
-        <v>67.39232663335906</v>
+        <v>199.058834777724</v>
       </c>
       <c r="S16">
-        <v>0.1853907027052036</v>
+        <v>0.03685578965078367</v>
       </c>
       <c r="T16">
-        <v>0.1853907027052036</v>
+        <v>0.03685578965078367</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.19042966377159</v>
+        <v>0.3320596666666667</v>
       </c>
       <c r="H17">
-        <v>1.19042966377159</v>
+        <v>0.996179</v>
       </c>
       <c r="I17">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="J17">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>73.5300021551716</v>
+        <v>75.59544766666666</v>
       </c>
       <c r="N17">
-        <v>73.5300021551716</v>
+        <v>226.786343</v>
       </c>
       <c r="O17">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="P17">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="Q17">
-        <v>87.53229574270523</v>
+        <v>25.10219915371078</v>
       </c>
       <c r="R17">
-        <v>87.53229574270523</v>
+        <v>225.919792383397</v>
       </c>
       <c r="S17">
-        <v>0.2407940878109876</v>
+        <v>0.04182910221155872</v>
       </c>
       <c r="T17">
-        <v>0.2407940878109876</v>
+        <v>0.04182910221155872</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.19042966377159</v>
+        <v>0.3320596666666667</v>
       </c>
       <c r="H18">
-        <v>1.19042966377159</v>
+        <v>0.996179</v>
       </c>
       <c r="I18">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="J18">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.9809295181275</v>
+        <v>25.85093633333333</v>
       </c>
       <c r="N18">
-        <v>24.9809295181275</v>
+        <v>77.552809</v>
       </c>
       <c r="O18">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="P18">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="Q18">
-        <v>29.73803952696631</v>
+        <v>8.58405330186789</v>
       </c>
       <c r="R18">
-        <v>29.73803952696631</v>
+        <v>77.256479716811</v>
       </c>
       <c r="S18">
-        <v>0.08180688099660301</v>
+        <v>0.0143040552245886</v>
       </c>
       <c r="T18">
-        <v>0.08180688099660301</v>
+        <v>0.0143040552245886</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.3320596666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.996179</v>
+      </c>
+      <c r="I19">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="J19">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.161759</v>
+      </c>
+      <c r="N19">
+        <v>9.485277</v>
+      </c>
+      <c r="O19">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="P19">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="Q19">
+        <v>1.049892639620333</v>
+      </c>
+      <c r="R19">
+        <v>9.449033756583001</v>
+      </c>
+      <c r="S19">
+        <v>0.001749490802177392</v>
+      </c>
+      <c r="T19">
+        <v>0.001749490802177392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.272073</v>
+      </c>
+      <c r="H20">
+        <v>0.816219</v>
+      </c>
+      <c r="I20">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J20">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.115164</v>
+      </c>
+      <c r="N20">
+        <v>69.34549200000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="P20">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="Q20">
+        <v>6.289012014972001</v>
+      </c>
+      <c r="R20">
+        <v>56.60110813474801</v>
+      </c>
+      <c r="S20">
+        <v>0.01047970836232876</v>
+      </c>
+      <c r="T20">
+        <v>0.01047970836232876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.272073</v>
+      </c>
+      <c r="H21">
+        <v>0.816219</v>
+      </c>
+      <c r="I21">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J21">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.438934333333333</v>
+      </c>
+      <c r="N21">
+        <v>4.316803</v>
+      </c>
+      <c r="O21">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="P21">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="Q21">
+        <v>0.391495180873</v>
+      </c>
+      <c r="R21">
+        <v>3.523456627857</v>
+      </c>
+      <c r="S21">
+        <v>0.0006523688158074624</v>
+      </c>
+      <c r="T21">
+        <v>0.0006523688158074624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.272073</v>
+      </c>
+      <c r="H22">
+        <v>0.816219</v>
+      </c>
+      <c r="I22">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J22">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>66.60745199999999</v>
+      </c>
+      <c r="N22">
+        <v>199.822356</v>
+      </c>
+      <c r="O22">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="P22">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="Q22">
+        <v>18.122089287996</v>
+      </c>
+      <c r="R22">
+        <v>163.098803591964</v>
+      </c>
+      <c r="S22">
+        <v>0.03019778149606947</v>
+      </c>
+      <c r="T22">
+        <v>0.03019778149606947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.272073</v>
+      </c>
+      <c r="H23">
+        <v>0.816219</v>
+      </c>
+      <c r="I23">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J23">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>75.59544766666666</v>
+      </c>
+      <c r="N23">
+        <v>226.786343</v>
+      </c>
+      <c r="O23">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="P23">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="Q23">
+        <v>20.567480233013</v>
+      </c>
+      <c r="R23">
+        <v>185.107322097117</v>
+      </c>
+      <c r="S23">
+        <v>0.0342726638264973</v>
+      </c>
+      <c r="T23">
+        <v>0.0342726638264973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.272073</v>
+      </c>
+      <c r="H24">
+        <v>0.816219</v>
+      </c>
+      <c r="I24">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J24">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>25.85093633333333</v>
+      </c>
+      <c r="N24">
+        <v>77.552809</v>
+      </c>
+      <c r="O24">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="P24">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="Q24">
+        <v>7.033341801019001</v>
+      </c>
+      <c r="R24">
+        <v>63.300076209171</v>
+      </c>
+      <c r="S24">
+        <v>0.01172002386253724</v>
+      </c>
+      <c r="T24">
+        <v>0.01172002386253723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.272073</v>
+      </c>
+      <c r="H25">
+        <v>0.816219</v>
+      </c>
+      <c r="I25">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J25">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.161759</v>
+      </c>
+      <c r="N25">
+        <v>9.485277</v>
+      </c>
+      <c r="O25">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="P25">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="Q25">
+        <v>0.860229256407</v>
+      </c>
+      <c r="R25">
+        <v>7.742063307663</v>
+      </c>
+      <c r="S25">
+        <v>0.001433444825741587</v>
+      </c>
+      <c r="T25">
+        <v>0.001433444825741587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.767429</v>
+      </c>
+      <c r="I26">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J26">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>23.115164</v>
+      </c>
+      <c r="N26">
+        <v>69.34549200000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="P26">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="Q26">
+        <v>5.913082397785334</v>
+      </c>
+      <c r="R26">
+        <v>53.21774158006801</v>
+      </c>
+      <c r="S26">
+        <v>0.009853277256218733</v>
+      </c>
+      <c r="T26">
+        <v>0.009853277256218733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.767429</v>
+      </c>
+      <c r="I27">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J27">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.438934333333333</v>
+      </c>
+      <c r="N27">
+        <v>4.316803</v>
+      </c>
+      <c r="O27">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="P27">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="Q27">
+        <v>0.3680933121652222</v>
+      </c>
+      <c r="R27">
+        <v>3.312839809487</v>
+      </c>
+      <c r="S27">
+        <v>0.0006133730628009212</v>
+      </c>
+      <c r="T27">
+        <v>0.0006133730628009213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.19042966377159</v>
-      </c>
-      <c r="H19">
-        <v>1.19042966377159</v>
-      </c>
-      <c r="I19">
-        <v>0.5651445487343731</v>
-      </c>
-      <c r="J19">
-        <v>0.5651445487343731</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.91573854085714</v>
-      </c>
-      <c r="N19">
-        <v>2.91573854085714</v>
-      </c>
-      <c r="O19">
-        <v>0.0168954699199229</v>
-      </c>
-      <c r="P19">
-        <v>0.0168954699199229</v>
-      </c>
-      <c r="Q19">
-        <v>3.470981650838432</v>
-      </c>
-      <c r="R19">
-        <v>3.470981650838432</v>
-      </c>
-      <c r="S19">
-        <v>0.009548382723550004</v>
-      </c>
-      <c r="T19">
-        <v>0.009548382723550004</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.767429</v>
+      </c>
+      <c r="I28">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J28">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>66.60745199999999</v>
+      </c>
+      <c r="N28">
+        <v>199.822356</v>
+      </c>
+      <c r="O28">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="P28">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="Q28">
+        <v>17.038830093636</v>
+      </c>
+      <c r="R28">
+        <v>153.349470842724</v>
+      </c>
+      <c r="S28">
+        <v>0.02839269026541541</v>
+      </c>
+      <c r="T28">
+        <v>0.02839269026541541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.767429</v>
+      </c>
+      <c r="I29">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J29">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>75.59544766666666</v>
+      </c>
+      <c r="N29">
+        <v>226.786343</v>
+      </c>
+      <c r="O29">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="P29">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="Q29">
+        <v>19.33804626912744</v>
+      </c>
+      <c r="R29">
+        <v>174.042416422147</v>
+      </c>
+      <c r="S29">
+        <v>0.03222399396204326</v>
+      </c>
+      <c r="T29">
+        <v>0.03222399396204327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.767429</v>
+      </c>
+      <c r="I30">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J30">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.85093633333333</v>
+      </c>
+      <c r="N30">
+        <v>77.552809</v>
+      </c>
+      <c r="O30">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="P30">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="Q30">
+        <v>6.612919406451222</v>
+      </c>
+      <c r="R30">
+        <v>59.516274658061</v>
+      </c>
+      <c r="S30">
+        <v>0.01101945212351475</v>
+      </c>
+      <c r="T30">
+        <v>0.01101945212351475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.767429</v>
+      </c>
+      <c r="I31">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J31">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.161759</v>
+      </c>
+      <c r="N31">
+        <v>9.485277</v>
+      </c>
+      <c r="O31">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="P31">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="Q31">
+        <v>0.8088085158703333</v>
+      </c>
+      <c r="R31">
+        <v>7.279276642833</v>
+      </c>
+      <c r="S31">
+        <v>0.001347759766893494</v>
+      </c>
+      <c r="T31">
+        <v>0.001347759766893494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.362438</v>
+      </c>
+      <c r="H32">
+        <v>4.087314</v>
+      </c>
+      <c r="I32">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J32">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>23.115164</v>
+      </c>
+      <c r="N32">
+        <v>69.34549200000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="P32">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="Q32">
+        <v>31.49297780983201</v>
+      </c>
+      <c r="R32">
+        <v>283.436800288488</v>
+      </c>
+      <c r="S32">
+        <v>0.05247838962982167</v>
+      </c>
+      <c r="T32">
+        <v>0.05247838962982166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.362438</v>
+      </c>
+      <c r="H33">
+        <v>4.087314</v>
+      </c>
+      <c r="I33">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J33">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.438934333333333</v>
+      </c>
+      <c r="N33">
+        <v>4.316803</v>
+      </c>
+      <c r="O33">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="P33">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="Q33">
+        <v>1.960458815238</v>
+      </c>
+      <c r="R33">
+        <v>17.644129337142</v>
+      </c>
+      <c r="S33">
+        <v>0.003266814658827181</v>
+      </c>
+      <c r="T33">
+        <v>0.003266814658827181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.362438</v>
+      </c>
+      <c r="H34">
+        <v>4.087314</v>
+      </c>
+      <c r="I34">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J34">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>66.60745199999999</v>
+      </c>
+      <c r="N34">
+        <v>199.822356</v>
+      </c>
+      <c r="O34">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="P34">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="Q34">
+        <v>90.74852368797599</v>
+      </c>
+      <c r="R34">
+        <v>816.7367131917839</v>
+      </c>
+      <c r="S34">
+        <v>0.151218992792162</v>
+      </c>
+      <c r="T34">
+        <v>0.151218992792162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.362438</v>
+      </c>
+      <c r="H35">
+        <v>4.087314</v>
+      </c>
+      <c r="I35">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J35">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>75.59544766666666</v>
+      </c>
+      <c r="N35">
+        <v>226.786343</v>
+      </c>
+      <c r="O35">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="P35">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="Q35">
+        <v>102.994110528078</v>
+      </c>
+      <c r="R35">
+        <v>926.9469947527019</v>
+      </c>
+      <c r="S35">
+        <v>0.1716244521082405</v>
+      </c>
+      <c r="T35">
+        <v>0.1716244521082405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.362438</v>
+      </c>
+      <c r="H36">
+        <v>4.087314</v>
+      </c>
+      <c r="I36">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J36">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.85093633333333</v>
+      </c>
+      <c r="N36">
+        <v>77.552809</v>
+      </c>
+      <c r="O36">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="P36">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="Q36">
+        <v>35.220297996114</v>
+      </c>
+      <c r="R36">
+        <v>316.982681965026</v>
+      </c>
+      <c r="S36">
+        <v>0.0586894174402734</v>
+      </c>
+      <c r="T36">
+        <v>0.05868941744027339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.362438</v>
+      </c>
+      <c r="H37">
+        <v>4.087314</v>
+      </c>
+      <c r="I37">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J37">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.161759</v>
+      </c>
+      <c r="N37">
+        <v>9.485277</v>
+      </c>
+      <c r="O37">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="P37">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="Q37">
+        <v>4.307700608442</v>
+      </c>
+      <c r="R37">
+        <v>38.769305475978</v>
+      </c>
+      <c r="S37">
+        <v>0.007178145944263917</v>
+      </c>
+      <c r="T37">
+        <v>0.007178145944263916</v>
       </c>
     </row>
   </sheetData>
